--- a/data/CS7/Market Data/CS7_market_data_2035.xlsx
+++ b/data/CS7/Market Data/CS7_market_data_2035.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS7\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C4C03B-BB6E-43A7-94AD-754A06984903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5B853F-B9AC-4D5A-A807-48D5E1AB65A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67080" yWindow="-12555" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,6 +134,9 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Energy, Winter"/>
@@ -154,7 +157,7 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>1.4999999999999999E-2</v>
+            <v>2.5000000000000001E-2</v>
           </cell>
         </row>
         <row r="5">
@@ -2226,7 +2229,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2279,7 +2282,7 @@
       </c>
       <c r="B6" s="1">
         <f>(1+[1]Main!$B$4)^($B$3-[1]Main!$B$1)</f>
-        <v>1.1605408250251485</v>
+        <v>1.2800845441963571</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2390,99 +2393,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Winter'!B2*Scenarios!$B$6</f>
-        <v>106.47962069605738</v>
+        <v>117.44775693001576</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Winter'!C2*Scenarios!$B$6</f>
-        <v>100.0154083006673</v>
+        <v>110.31768601884207</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Winter'!D2*Scenarios!$B$6</f>
-        <v>95.280401734564691</v>
+        <v>105.0949410785209</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Winter'!E2*Scenarios!$B$6</f>
-        <v>92.843266002011887</v>
+        <v>102.40676353570856</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Winter'!F2*Scenarios!$B$6</f>
-        <v>92.379049672001813</v>
+        <v>101.89472971803002</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Winter'!G2*Scenarios!$B$6</f>
-        <v>94.11986090953954</v>
+        <v>103.81485653432455</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Winter'!H2*Scenarios!$B$6</f>
-        <v>99.702062277910514</v>
+        <v>109.97206319190903</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Winter'!I2*Scenarios!$B$6</f>
-        <v>118.43319119381641</v>
+        <v>130.63262773523823</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Winter'!J2*Scenarios!$B$6</f>
-        <v>132.11596752086291</v>
+        <v>145.7248245113133</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Winter'!K2*Scenarios!$B$6</f>
-        <v>127.65949075276635</v>
+        <v>140.80929986159927</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Winter'!L2*Scenarios!$B$6</f>
-        <v>113.30360074720525</v>
+        <v>124.97465404989033</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Winter'!M2*Scenarios!$B$6</f>
-        <v>100.0154083006673</v>
+        <v>110.31768601884207</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Winter'!N2*Scenarios!$B$6</f>
-        <v>97.357769811359717</v>
+        <v>107.3862924126324</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Winter'!O2*Scenarios!$B$6</f>
-        <v>95.373245000566712</v>
+        <v>105.19734784205663</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Winter'!P2*Scenarios!$B$6</f>
-        <v>96.324888477087327</v>
+        <v>106.24701716829763</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Winter'!Q2*Scenarios!$B$6</f>
-        <v>98.64597012713763</v>
+        <v>108.80718625669036</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Winter'!R2*Scenarios!$B$6</f>
-        <v>113.30360074720525</v>
+        <v>124.97465404989033</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Winter'!S2*Scenarios!$B$6</f>
-        <v>137.52408776548009</v>
+        <v>151.6900184872683</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Winter'!T2*Scenarios!$B$6</f>
-        <v>149.62852857049242</v>
+        <v>165.04130028323632</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Winter'!U2*Scenarios!$B$6</f>
-        <v>153.55115655907741</v>
+        <v>169.36798604262</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Winter'!V2*Scenarios!$B$6</f>
-        <v>136.86257949521578</v>
+        <v>150.96037029707639</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Winter'!W2*Scenarios!$B$6</f>
-        <v>125.72138757497434</v>
+        <v>138.67155867279135</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Winter'!X2*Scenarios!$B$6</f>
-        <v>116.05408250251486</v>
+        <v>128.00845441963571</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Winter'!Y2*Scenarios!$B$6</f>
-        <v>108.23203734184536</v>
+        <v>119.38068459175227</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -2491,99 +2494,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Winter'!B3*Scenarios!$B$6</f>
-        <v>103.26492261073773</v>
+        <v>113.90192274259186</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Winter'!C3*Scenarios!$B$6</f>
-        <v>100.32875432342409</v>
+        <v>110.66330884577508</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Winter'!D3*Scenarios!$B$6</f>
-        <v>98.634364718887369</v>
+        <v>108.79438541124838</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Winter'!E3*Scenarios!$B$6</f>
-        <v>96.324888477087327</v>
+        <v>106.24701716829763</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Winter'!F3*Scenarios!$B$6</f>
-        <v>96.487364192590846</v>
+        <v>106.42622900448512</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Winter'!G3*Scenarios!$B$6</f>
-        <v>98.64597012713763</v>
+        <v>108.80718625669036</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Winter'!H3*Scenarios!$B$6</f>
-        <v>103.28813342723822</v>
+        <v>113.92752443347578</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Winter'!I3*Scenarios!$B$6</f>
-        <v>116.05408250251486</v>
+        <v>128.00845441963571</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Winter'!J3*Scenarios!$B$6</f>
-        <v>121.5898622378848</v>
+        <v>134.11445769545233</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Winter'!K3*Scenarios!$B$6</f>
-        <v>121.8567866276406</v>
+        <v>134.40887714061751</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Winter'!L3*Scenarios!$B$6</f>
-        <v>116.05408250251486</v>
+        <v>128.00845441963571</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Winter'!M3*Scenarios!$B$6</f>
-        <v>109.76395123087855</v>
+        <v>121.07039619009146</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Winter'!N3*Scenarios!$B$6</f>
-        <v>106.76975590231366</v>
+        <v>117.76777806606485</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Winter'!O3*Scenarios!$B$6</f>
-        <v>106.51443692080814</v>
+        <v>117.48615946634166</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Winter'!P3*Scenarios!$B$6</f>
-        <v>104.56472833476587</v>
+        <v>115.33561743209177</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Winter'!Q3*Scenarios!$B$6</f>
-        <v>106.78136131056392</v>
+        <v>117.78057891150682</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Winter'!R3*Scenarios!$B$6</f>
-        <v>117.1914125110395</v>
+        <v>129.26293727294814</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Winter'!S3*Scenarios!$B$6</f>
-        <v>124.29392236019341</v>
+        <v>137.09705468342983</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Winter'!T3*Scenarios!$B$6</f>
-        <v>146.22814395316871</v>
+        <v>161.290652568741</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Winter'!U3*Scenarios!$B$6</f>
-        <v>138.64981236575449</v>
+        <v>152.93170049513878</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Winter'!V3*Scenarios!$B$6</f>
-        <v>127.65949075276635</v>
+        <v>140.80929986159927</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Winter'!W3*Scenarios!$B$6</f>
-        <v>118.67690476707169</v>
+        <v>130.90144548951949</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Winter'!X3*Scenarios!$B$6</f>
-        <v>113.73300085246456</v>
+        <v>125.448285331243</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Winter'!Y3*Scenarios!$B$6</f>
-        <v>110.82004338165143</v>
+        <v>122.23527312531013</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -2592,99 +2595,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Winter'!B4*Scenarios!$B$6</f>
-        <v>107.15273437457196</v>
+        <v>118.19020596564965</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Winter'!C4*Scenarios!$B$6</f>
-        <v>104.5879391512664</v>
+        <v>115.36121912297571</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Winter'!D4*Scenarios!$B$6</f>
-        <v>100.97865718543818</v>
+        <v>111.38015619052504</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Winter'!E4*Scenarios!$B$6</f>
-        <v>99.574402787157737</v>
+        <v>109.83125389204743</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Winter'!F4*Scenarios!$B$6</f>
-        <v>98.64597012713763</v>
+        <v>108.80718625669036</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Winter'!G4*Scenarios!$B$6</f>
-        <v>100.15467319967031</v>
+        <v>110.47129616414561</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Winter'!H4*Scenarios!$B$6</f>
-        <v>110.25137837738912</v>
+        <v>121.60803169865392</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Winter'!I4*Scenarios!$B$6</f>
-        <v>120.62661335311394</v>
+        <v>133.05198752376936</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Winter'!J4*Scenarios!$B$6</f>
-        <v>140.88965615805304</v>
+        <v>155.40226366543774</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Winter'!K4*Scenarios!$B$6</f>
-        <v>140.88965615805304</v>
+        <v>155.40226366543774</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Winter'!L4*Scenarios!$B$6</f>
-        <v>122.29779214115015</v>
+        <v>134.8953092674121</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Winter'!M4*Scenarios!$B$6</f>
-        <v>119.50088875283954</v>
+        <v>131.81030551589888</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Winter'!N4*Scenarios!$B$6</f>
-        <v>116.0424770942646</v>
+        <v>127.99565357419374</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Winter'!O4*Scenarios!$B$6</f>
-        <v>114.31327126497713</v>
+        <v>126.08832760334117</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Winter'!P4*Scenarios!$B$6</f>
-        <v>109.97284857938308</v>
+        <v>121.3008114080468</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Winter'!Q4*Scenarios!$B$6</f>
-        <v>109.93803235463233</v>
+        <v>121.26240887172091</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Winter'!R4*Scenarios!$B$6</f>
-        <v>115.32294178274901</v>
+        <v>127.20200115679201</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Winter'!S4*Scenarios!$B$6</f>
-        <v>119.18754273008275</v>
+        <v>131.46468268896587</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Winter'!T4*Scenarios!$B$6</f>
-        <v>129.15658841704879</v>
+        <v>142.4606089236126</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Winter'!U4*Scenarios!$B$6</f>
-        <v>140.88965615805304</v>
+        <v>155.40226366543774</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Winter'!V4*Scenarios!$B$6</f>
-        <v>139.26489900301783</v>
+        <v>153.61014530356286</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Winter'!W4*Scenarios!$B$6</f>
-        <v>125.00185226345874</v>
+        <v>137.8779062553896</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Winter'!X4*Scenarios!$B$6</f>
-        <v>117.58599639154804</v>
+        <v>129.6981660179749</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Winter'!Y4*Scenarios!$B$6</f>
-        <v>107.55892366333077</v>
+        <v>118.63823555611839</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -2838,99 +2841,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Spring'!B2*Scenarios!$B$6</f>
-        <v>51.063796301106535</v>
+        <v>56.323719944639713</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Spring'!C2*Scenarios!$B$6</f>
-        <v>54.104413262672423</v>
+        <v>59.677541450434163</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Spring'!D2*Scenarios!$B$6</f>
-        <v>55.891646133211147</v>
+        <v>61.648871648496552</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Spring'!E2*Scenarios!$B$6</f>
-        <v>56.170175931217187</v>
+        <v>61.956091939103679</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Spring'!F2*Scenarios!$B$6</f>
-        <v>58.607311663769998</v>
+        <v>64.644269481916027</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Spring'!G2*Scenarios!$B$6</f>
-        <v>64.978680793158063</v>
+        <v>71.671933629554033</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Spring'!H2*Scenarios!$B$6</f>
-        <v>68.263011327979243</v>
+        <v>75.29457288962972</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Spring'!I2*Scenarios!$B$6</f>
-        <v>58.003830434756921</v>
+        <v>63.978625518933924</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Spring'!J2*Scenarios!$B$6</f>
-        <v>39.226279885850019</v>
+        <v>43.266857593836868</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Spring'!K2*Scenarios!$B$6</f>
-        <v>15.667301137839505</v>
+        <v>17.28114134665082</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Spring'!L2*Scenarios!$B$6</f>
-        <v>13.114111322784179</v>
+        <v>14.464955349418837</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Spring'!M2*Scenarios!$B$6</f>
-        <v>10.967110796487653</v>
+        <v>12.096798942655573</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Spring'!N2*Scenarios!$B$6</f>
-        <v>5.2224337126131681</v>
+        <v>5.7603804488836072</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Spring'!O2*Scenarios!$B$6</f>
-        <v>3.6324927823287148</v>
+        <v>4.0066646233345979</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Spring'!P2*Scenarios!$B$6</f>
-        <v>0.62669204551358026</v>
+        <v>0.69124565386603287</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Spring'!Q2*Scenarios!$B$6</f>
-        <v>3.7717576813317328</v>
+        <v>4.1602747686381605</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Spring'!R2*Scenarios!$B$6</f>
-        <v>5.802704125125743</v>
+        <v>6.4004227209817852</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Spring'!S2*Scenarios!$B$6</f>
-        <v>17.605404315631503</v>
+        <v>19.418882535458739</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Spring'!T2*Scenarios!$B$6</f>
-        <v>39.226279885850019</v>
+        <v>43.266857593836868</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Spring'!U2*Scenarios!$B$6</f>
-        <v>57.005765325235295</v>
+        <v>62.87775281092506</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Spring'!V2*Scenarios!$B$6</f>
-        <v>68.831676332241557</v>
+        <v>75.921814316285946</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Spring'!W2*Scenarios!$B$6</f>
-        <v>66.881967746199308</v>
+        <v>73.771272282036065</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Spring'!X2*Scenarios!$B$6</f>
-        <v>56.866500426232278</v>
+        <v>62.7241426656215</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Spring'!Y2*Scenarios!$B$6</f>
-        <v>84.057971956571521</v>
+        <v>92.716523536142148</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -2939,99 +2942,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Spring'!B3*Scenarios!$B$6</f>
-        <v>81.818128164272977</v>
+        <v>90.245960365843175</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Spring'!C3*Scenarios!$B$6</f>
-        <v>80.228187233988507</v>
+        <v>88.492244540294166</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Spring'!D3*Scenarios!$B$6</f>
-        <v>80.07731692673525</v>
+        <v>88.325833549548634</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Spring'!E3*Scenarios!$B$6</f>
-        <v>78.92838150996036</v>
+        <v>87.05854985079425</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Spring'!F3*Scenarios!$B$6</f>
-        <v>79.891630394731223</v>
+        <v>88.121020022477225</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Spring'!G3*Scenarios!$B$6</f>
-        <v>77.756235276684947</v>
+        <v>85.765664461155922</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Spring'!H3*Scenarios!$B$6</f>
-        <v>78.823932835708092</v>
+        <v>86.94334224181658</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Spring'!I3*Scenarios!$B$6</f>
-        <v>84.568609919582585</v>
+        <v>93.279760735588553</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Spring'!J3*Scenarios!$B$6</f>
-        <v>48.394552403548701</v>
+        <v>53.379525492988094</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Spring'!K3*Scenarios!$B$6</f>
-        <v>34.816224750754458</v>
+        <v>38.402536325890715</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Spring'!L3*Scenarios!$B$6</f>
-        <v>21.841378326973295</v>
+        <v>24.091191121775442</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Spring'!M3*Scenarios!$B$6</f>
-        <v>23.709849055263785</v>
+        <v>26.152127237931573</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Spring'!N3*Scenarios!$B$6</f>
-        <v>17.059950127869683</v>
+        <v>18.817242799686447</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Spring'!O3*Scenarios!$B$6</f>
-        <v>11.210824369742936</v>
+        <v>12.36561669693681</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Spring'!P3*Scenarios!$B$6</f>
-        <v>9.5280401734564713</v>
+        <v>10.509494107852094</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Spring'!Q3*Scenarios!$B$6</f>
-        <v>8.6344237381871061</v>
+        <v>9.523829008820897</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Spring'!R3*Scenarios!$B$6</f>
-        <v>17.059950127869683</v>
+        <v>18.817242799686447</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Spring'!S3*Scenarios!$B$6</f>
-        <v>22.560913638488888</v>
+        <v>24.884843539177183</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Spring'!T3*Scenarios!$B$6</f>
-        <v>40.375215302624916</v>
+        <v>44.534141292591265</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Spring'!U3*Scenarios!$B$6</f>
-        <v>72.800725953827566</v>
+        <v>80.299703457437474</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Spring'!V3*Scenarios!$B$6</f>
-        <v>78.92838150996036</v>
+        <v>87.05854985079425</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Spring'!W3*Scenarios!$B$6</f>
-        <v>77.489310886929161</v>
+        <v>85.47124501599076</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Spring'!X3*Scenarios!$B$6</f>
-        <v>73.206915242586362</v>
+        <v>80.747733047906209</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Spring'!Y3*Scenarios!$B$6</f>
-        <v>83.55893940181069</v>
+        <v>92.166087182137716</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -3040,99 +3043,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Spring'!B4*Scenarios!$B$6</f>
-        <v>79.961262844232735</v>
+        <v>88.197825095129005</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Spring'!C4*Scenarios!$B$6</f>
-        <v>76.479640369157295</v>
+        <v>84.357571462539937</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Spring'!D4*Scenarios!$B$6</f>
-        <v>76.96706751566785</v>
+        <v>84.895206971102397</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Spring'!E4*Scenarios!$B$6</f>
-        <v>75.156623828628625</v>
+        <v>82.89827508215609</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Spring'!F4*Scenarios!$B$6</f>
-        <v>78.777511202707075</v>
+        <v>86.892138860048718</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Spring'!G4*Scenarios!$B$6</f>
-        <v>72.99801789408184</v>
+        <v>80.517317829950855</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Spring'!H4*Scenarios!$B$6</f>
-        <v>77.094727006420626</v>
+        <v>85.036016270964012</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Spring'!I4*Scenarios!$B$6</f>
-        <v>67.984481529973195</v>
+        <v>74.9873525990226</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Spring'!J4*Scenarios!$B$6</f>
-        <v>44.854902887221989</v>
+        <v>49.475267633189198</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Spring'!K4*Scenarios!$B$6</f>
-        <v>28.050271740857841</v>
+        <v>30.939643433225953</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Spring'!L4*Scenarios!$B$6</f>
-        <v>25.531898150553268</v>
+        <v>28.161859972319856</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Spring'!M4*Scenarios!$B$6</f>
-        <v>25.253368352547234</v>
+        <v>27.854639681712733</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Spring'!N4*Scenarios!$B$6</f>
-        <v>13.601538469294741</v>
+        <v>15.002590857981305</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Spring'!O4*Scenarios!$B$6</f>
-        <v>11.87233264000727</v>
+        <v>13.095264887128733</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Spring'!P4*Scenarios!$B$6</f>
-        <v>3.7717576813317328</v>
+        <v>4.1602747686381605</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Spring'!Q4*Scenarios!$B$6</f>
-        <v>3.7717576813317328</v>
+        <v>4.1602747686381605</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Spring'!R4*Scenarios!$B$6</f>
-        <v>9.8297807879630081</v>
+        <v>10.842316089343145</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Spring'!S4*Scenarios!$B$6</f>
-        <v>29.12957470813123</v>
+        <v>32.130122059328563</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Spring'!T4*Scenarios!$B$6</f>
-        <v>47.814281991036125</v>
+        <v>52.739483220889916</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Spring'!U4*Scenarios!$B$6</f>
-        <v>66.429356824439509</v>
+        <v>73.272039309799482</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Spring'!V4*Scenarios!$B$6</f>
-        <v>86.611161771626826</v>
+        <v>95.532709533374117</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Spring'!W4*Scenarios!$B$6</f>
-        <v>78.777511202707075</v>
+        <v>86.892138860048718</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Spring'!X4*Scenarios!$B$6</f>
-        <v>82.398398576785553</v>
+        <v>90.88600263794136</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Spring'!Y4*Scenarios!$B$6</f>
-        <v>83.55893940181069</v>
+        <v>92.166087182137716</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -3286,99 +3289,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Summer'!B2*Scenarios!$B$6</f>
-        <v>131.30358894334532</v>
+        <v>144.82876533037583</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Summer'!C2*Scenarios!$B$6</f>
-        <v>130.42157791632619</v>
+        <v>143.85590107678661</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Summer'!D2*Scenarios!$B$6</f>
-        <v>130.72331853083273</v>
+        <v>144.18872305827767</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Summer'!E2*Scenarios!$B$6</f>
-        <v>130.65368608133122</v>
+        <v>144.11191798562587</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Summer'!F2*Scenarios!$B$6</f>
-        <v>131.00184832883878</v>
+        <v>144.49594334888479</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Summer'!G2*Scenarios!$B$6</f>
-        <v>135.59758999593836</v>
+        <v>149.56507814390235</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Summer'!H2*Scenarios!$B$6</f>
-        <v>140.10048839703592</v>
+        <v>154.53180617538422</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Summer'!I2*Scenarios!$B$6</f>
-        <v>135.59758999593836</v>
+        <v>149.56507814390235</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Summer'!J2*Scenarios!$B$6</f>
-        <v>130.93221587933726</v>
+        <v>144.41913827623299</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Summer'!K2*Scenarios!$B$6</f>
-        <v>129.88772913681464</v>
+        <v>143.26706218645629</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Summer'!L2*Scenarios!$B$6</f>
-        <v>113.73300085246456</v>
+        <v>125.448285331243</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Summer'!M2*Scenarios!$B$6</f>
-        <v>107.90708591083832</v>
+        <v>119.02226091937729</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Summer'!N2*Scenarios!$B$6</f>
-        <v>107.68658315408354</v>
+        <v>118.77904485597998</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Summer'!O2*Scenarios!$B$6</f>
-        <v>103.27652801898796</v>
+        <v>113.91472358803381</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Summer'!P2*Scenarios!$B$6</f>
-        <v>96.324888477087327</v>
+        <v>106.24701716829763</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Summer'!Q2*Scenarios!$B$6</f>
-        <v>94.932239487057146</v>
+        <v>104.710915715262</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Summer'!R2*Scenarios!$B$6</f>
-        <v>94.932239487057146</v>
+        <v>104.710915715262</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Summer'!S2*Scenarios!$B$6</f>
-        <v>109.52023765762327</v>
+        <v>120.80157843581023</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Summer'!T2*Scenarios!$B$6</f>
-        <v>126.73105809274622</v>
+        <v>139.78523222624219</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Summer'!U2*Scenarios!$B$6</f>
-        <v>136.47960102295747</v>
+        <v>150.53794239749158</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Summer'!V2*Scenarios!$B$6</f>
-        <v>153.95734584783619</v>
+        <v>169.81601563308874</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Summer'!W2*Scenarios!$B$6</f>
-        <v>145.64787354065615</v>
+        <v>160.65061029664281</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Summer'!X2*Scenarios!$B$6</f>
-        <v>135.9457522434459</v>
+        <v>149.94910350716128</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Summer'!Y2*Scenarios!$B$6</f>
-        <v>132.11596752086291</v>
+        <v>145.7248245113133</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -3387,99 +3390,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Summer'!B3*Scenarios!$B$6</f>
-        <v>124.43318725919643</v>
+        <v>137.25066482873339</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Summer'!C3*Scenarios!$B$6</f>
-        <v>124.42158185094617</v>
+        <v>137.23786398329145</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Summer'!D3*Scenarios!$B$6</f>
-        <v>124.42158185094617</v>
+        <v>137.23786398329145</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Summer'!E3*Scenarios!$B$6</f>
-        <v>110.25137837738912</v>
+        <v>121.60803169865392</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Summer'!F3*Scenarios!$B$6</f>
-        <v>118.88580211557621</v>
+        <v>131.13186070747483</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Summer'!G3*Scenarios!$B$6</f>
-        <v>121.8567866276406</v>
+        <v>134.40887714061751</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Summer'!H3*Scenarios!$B$6</f>
-        <v>133.5782489603946</v>
+        <v>147.33773103700068</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Summer'!I3*Scenarios!$B$6</f>
-        <v>118.88580211557621</v>
+        <v>131.13186070747483</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Summer'!J3*Scenarios!$B$6</f>
-        <v>102.09277637746231</v>
+        <v>112.60903735295354</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Summer'!K3*Scenarios!$B$6</f>
-        <v>92.135336098746549</v>
+        <v>101.62591196374879</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Summer'!L3*Scenarios!$B$6</f>
-        <v>92.379049672001813</v>
+        <v>101.89472971803002</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Summer'!M3*Scenarios!$B$6</f>
-        <v>94.11986090953954</v>
+        <v>103.81485653432455</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Summer'!N3*Scenarios!$B$6</f>
-        <v>95.164347652062176</v>
+        <v>104.96693262410128</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Summer'!O3*Scenarios!$B$6</f>
-        <v>95.733012656324505</v>
+        <v>105.59417405075749</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Summer'!P3*Scenarios!$B$6</f>
-        <v>92.379049672001813</v>
+        <v>101.89472971803002</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Summer'!Q3*Scenarios!$B$6</f>
-        <v>92.379049672001813</v>
+        <v>101.89472971803002</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Summer'!R3*Scenarios!$B$6</f>
-        <v>95.164347652062176</v>
+        <v>104.96693262410128</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Summer'!S3*Scenarios!$B$6</f>
-        <v>97.752353691868265</v>
+        <v>107.82152115765916</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Summer'!T3*Scenarios!$B$6</f>
-        <v>103.28813342723822</v>
+        <v>113.92752443347578</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Summer'!U3*Scenarios!$B$6</f>
-        <v>134.85484386792226</v>
+        <v>148.74582403561669</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Summer'!V3*Scenarios!$B$6</f>
-        <v>149.59371234574166</v>
+        <v>165.00289774691043</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Summer'!W3*Scenarios!$B$6</f>
-        <v>142.07340779957869</v>
+        <v>156.70794990051803</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Summer'!X3*Scenarios!$B$6</f>
-        <v>134.13530855640667</v>
+        <v>147.95217161821495</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Summer'!Y3*Scenarios!$B$6</f>
-        <v>125.04827389645976</v>
+        <v>137.92910963715747</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -3488,99 +3491,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Summer'!B4*Scenarios!$B$6</f>
-        <v>126.08115523073214</v>
+        <v>139.06838488149222</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Summer'!C4*Scenarios!$B$6</f>
-        <v>121.42738652238128</v>
+        <v>133.93524585926482</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Summer'!D4*Scenarios!$B$6</f>
-        <v>122.14692183389688</v>
+        <v>134.72889827666657</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Summer'!E4*Scenarios!$B$6</f>
-        <v>108.66143744710466</v>
+        <v>119.85431587310491</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Summer'!F4*Scenarios!$B$6</f>
-        <v>109.52023765762327</v>
+        <v>120.80157843581023</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Summer'!G4*Scenarios!$B$6</f>
-        <v>115.41578504875103</v>
+        <v>127.30440792032772</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Summer'!H4*Scenarios!$B$6</f>
-        <v>131.48927547534933</v>
+        <v>145.03357885744725</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Summer'!I4*Scenarios!$B$6</f>
-        <v>127.50862044551307</v>
+        <v>140.64288887085377</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Summer'!J4*Scenarios!$B$6</f>
-        <v>104.44867425226337</v>
+        <v>115.20760897767214</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Summer'!K4*Scenarios!$B$6</f>
-        <v>87.040561876886144</v>
+        <v>96.006340814726784</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Summer'!L4*Scenarios!$B$6</f>
-        <v>75.295888727631635</v>
+        <v>83.051885227459636</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Summer'!M4*Scenarios!$B$6</f>
-        <v>74.912910255373333</v>
+        <v>82.629457327874846</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Summer'!N4*Scenarios!$B$6</f>
-        <v>75.423548218384397</v>
+        <v>83.192694527321237</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Summer'!O4*Scenarios!$B$6</f>
-        <v>75.295888727631635</v>
+        <v>83.051885227459636</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Summer'!P4*Scenarios!$B$6</f>
-        <v>73.54347208184366</v>
+        <v>81.11895756572315</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Summer'!Q4*Scenarios!$B$6</f>
-        <v>69.632449501508916</v>
+        <v>76.80507265178143</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Summer'!R4*Scenarios!$B$6</f>
-        <v>74.170164127357239</v>
+        <v>81.810203219589184</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Summer'!S4*Scenarios!$B$6</f>
-        <v>81.22625234351014</v>
+        <v>89.593117248303031</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Summer'!T4*Scenarios!$B$6</f>
-        <v>99.261056764400962</v>
+        <v>109.48563106511442</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Summer'!U4*Scenarios!$B$6</f>
-        <v>126.52216074424169</v>
+        <v>139.55481700828685</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Summer'!V4*Scenarios!$B$6</f>
-        <v>132.60339466737349</v>
+        <v>146.26246001987576</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Summer'!W4*Scenarios!$B$6</f>
-        <v>125.96510114822964</v>
+        <v>138.94037642707261</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Summer'!X4*Scenarios!$B$6</f>
-        <v>109.2997349008685</v>
+        <v>120.55836237241292</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Summer'!Y4*Scenarios!$B$6</f>
-        <v>86.146945441616779</v>
+        <v>95.020675715695589</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -3734,99 +3737,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Autumn'!B2*Scenarios!$B$6</f>
-        <v>106.81617753531468</v>
+        <v>117.81898144783271</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Autumn'!C2*Scenarios!$B$6</f>
-        <v>104.40225261926236</v>
+        <v>115.15640559590427</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Autumn'!D2*Scenarios!$B$6</f>
-        <v>104.52991211001512</v>
+        <v>115.29721489576588</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Autumn'!E2*Scenarios!$B$6</f>
-        <v>97.276531953607943</v>
+        <v>107.29668649453865</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Autumn'!F2*Scenarios!$B$6</f>
-        <v>99.063764824146674</v>
+        <v>109.26801669260104</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Autumn'!G2*Scenarios!$B$6</f>
-        <v>104.3210147615106</v>
+        <v>115.06679967781054</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Autumn'!H2*Scenarios!$B$6</f>
-        <v>120.85872151811897</v>
+        <v>133.30800443260864</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Autumn'!I2*Scenarios!$B$6</f>
-        <v>140.59952095179676</v>
+        <v>155.08224252938868</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Autumn'!J2*Scenarios!$B$6</f>
-        <v>140.13530462178667</v>
+        <v>154.57020871171011</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Autumn'!K2*Scenarios!$B$6</f>
-        <v>136.99023898596855</v>
+        <v>151.10117959693801</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Autumn'!L2*Scenarios!$B$6</f>
-        <v>115.91481760351184</v>
+        <v>127.85484427433214</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Autumn'!M2*Scenarios!$B$6</f>
-        <v>108.30166979134685</v>
+        <v>119.45748966440404</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Autumn'!N2*Scenarios!$B$6</f>
-        <v>106.06182599904832</v>
+        <v>116.98692649410508</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Autumn'!O2*Scenarios!$B$6</f>
-        <v>104.56472833476587</v>
+        <v>115.33561743209177</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Autumn'!P2*Scenarios!$B$6</f>
-        <v>107.23397223232374</v>
+        <v>118.27981188374341</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Autumn'!Q2*Scenarios!$B$6</f>
-        <v>127.24169605575729</v>
+        <v>140.34846942568859</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Autumn'!R2*Scenarios!$B$6</f>
-        <v>140.35580737854147</v>
+        <v>154.81342477510742</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Autumn'!S2*Scenarios!$B$6</f>
-        <v>156.95154117640109</v>
+        <v>173.11863375711533</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Autumn'!T2*Scenarios!$B$6</f>
-        <v>186.31322404953733</v>
+        <v>205.50477272528315</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Autumn'!U2*Scenarios!$B$6</f>
-        <v>175.84514580781052</v>
+        <v>193.95841013663204</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Autumn'!V2*Scenarios!$B$6</f>
-        <v>142.74652147809329</v>
+        <v>157.45039893615191</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Autumn'!W2*Scenarios!$B$6</f>
-        <v>137.26876878397456</v>
+        <v>151.40839988754513</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Autumn'!X2*Scenarios!$B$6</f>
-        <v>137.26876878397456</v>
+        <v>151.40839988754513</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Autumn'!Y2*Scenarios!$B$6</f>
-        <v>127.24169605575729</v>
+        <v>140.34846942568859</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -3835,99 +3838,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Autumn'!B3*Scenarios!$B$6</f>
-        <v>92.843266002011887</v>
+        <v>102.40676353570856</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Autumn'!C3*Scenarios!$B$6</f>
-        <v>89.11792995368117</v>
+        <v>98.297692148838266</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Autumn'!D3*Scenarios!$B$6</f>
-        <v>87.040561876886144</v>
+        <v>96.006340814726784</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Autumn'!E3*Scenarios!$B$6</f>
-        <v>84.243658488575534</v>
+        <v>92.921337063213571</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Autumn'!F3*Scenarios!$B$6</f>
-        <v>82.386793168535291</v>
+        <v>90.873201792499387</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Autumn'!G3*Scenarios!$B$6</f>
-        <v>89.361643526936433</v>
+        <v>98.566509903119496</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Autumn'!H3*Scenarios!$B$6</f>
-        <v>102.58020352397288</v>
+        <v>113.14667286151601</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Autumn'!I3*Scenarios!$B$6</f>
-        <v>124.59566297469995</v>
+        <v>137.4298766649209</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Autumn'!J3*Scenarios!$B$6</f>
-        <v>141.09855350655755</v>
+        <v>155.63267888339308</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Autumn'!K3*Scenarios!$B$6</f>
-        <v>119.30359681258527</v>
+        <v>131.59269114338551</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Autumn'!L3*Scenarios!$B$6</f>
-        <v>108.16240489234384</v>
+        <v>119.30387951910049</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Autumn'!M3*Scenarios!$B$6</f>
-        <v>98.692391760138634</v>
+        <v>108.85838963845822</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Autumn'!N3*Scenarios!$B$6</f>
-        <v>103.18368475298595</v>
+        <v>113.8123168244981</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Autumn'!O3*Scenarios!$B$6</f>
-        <v>99.005737782895423</v>
+        <v>109.20401246539123</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Autumn'!P3*Scenarios!$B$6</f>
-        <v>99.237845947900453</v>
+        <v>109.4600293742305</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Autumn'!Q3*Scenarios!$B$6</f>
-        <v>110.83164878990169</v>
+        <v>122.2480739707521</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Autumn'!R3*Scenarios!$B$6</f>
-        <v>131.1411132278418</v>
+        <v>144.64955349418835</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Autumn'!S3*Scenarios!$B$6</f>
-        <v>150.87030725326932</v>
+        <v>166.41099074552642</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Autumn'!T3*Scenarios!$B$6</f>
-        <v>155.67494626887341</v>
+        <v>171.71054075849932</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Autumn'!U3*Scenarios!$B$6</f>
-        <v>156.68461678664531</v>
+        <v>172.82421431195016</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Autumn'!V3*Scenarios!$B$6</f>
-        <v>172.5956314977401</v>
+        <v>190.37417341288221</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Autumn'!W3*Scenarios!$B$6</f>
-        <v>155.90705443387847</v>
+        <v>171.96655766733861</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Autumn'!X3*Scenarios!$B$6</f>
-        <v>133.6943030428971</v>
+        <v>147.46573949142035</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Autumn'!Y3*Scenarios!$B$6</f>
-        <v>118.37516415256515</v>
+        <v>130.56862350802842</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -3936,99 +3939,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Autumn'!B4*Scenarios!$B$6</f>
-        <v>100.36357054817485</v>
+        <v>110.70171138210097</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Autumn'!C4*Scenarios!$B$6</f>
-        <v>94.827790812804878</v>
+        <v>104.59570810628433</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Autumn'!D4*Scenarios!$B$6</f>
-        <v>87.040561876886144</v>
+        <v>96.006340814726784</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Autumn'!E4*Scenarios!$B$6</f>
-        <v>82.050236329278007</v>
+        <v>90.501977274682446</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Autumn'!F4*Scenarios!$B$6</f>
-        <v>82.027025512777513</v>
+        <v>90.476375583798529</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Autumn'!G4*Scenarios!$B$6</f>
-        <v>83.164355521302141</v>
+        <v>91.730858437110939</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Autumn'!H4*Scenarios!$B$6</f>
-        <v>85.694334519856966</v>
+        <v>94.521442743459005</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Autumn'!I4*Scenarios!$B$6</f>
-        <v>90.522184351961585</v>
+        <v>99.846594447315852</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Autumn'!J4*Scenarios!$B$6</f>
-        <v>84.823928901088109</v>
+        <v>93.561379335311742</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Autumn'!K4*Scenarios!$B$6</f>
-        <v>81.237857751760401</v>
+        <v>89.60591809374499</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Autumn'!L4*Scenarios!$B$6</f>
-        <v>77.419678437427649</v>
+        <v>85.394439943338966</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Autumn'!M4*Scenarios!$B$6</f>
-        <v>55.473851436202096</v>
+        <v>61.188041212585865</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Autumn'!N4*Scenarios!$B$6</f>
-        <v>58.015435843007175</v>
+        <v>63.99142636437589</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Autumn'!O4*Scenarios!$B$6</f>
-        <v>58.305571049263463</v>
+        <v>64.31144750042499</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Autumn'!P4*Scenarios!$B$6</f>
-        <v>69.632449501508916</v>
+        <v>76.80507265178143</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Autumn'!Q4*Scenarios!$B$6</f>
-        <v>81.736890306521218</v>
+        <v>90.156354447749436</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Autumn'!R4*Scenarios!$B$6</f>
-        <v>97.206899504106445</v>
+        <v>107.21988142188688</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Autumn'!S4*Scenarios!$B$6</f>
-        <v>122.41384622365267</v>
+        <v>135.02331772183175</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Autumn'!T4*Scenarios!$B$6</f>
-        <v>146.08887905416569</v>
+        <v>161.13704242343744</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Autumn'!U4*Scenarios!$B$6</f>
-        <v>139.27650441126809</v>
+        <v>153.62294614900483</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Autumn'!V4*Scenarios!$B$6</f>
-        <v>138.91673675551027</v>
+        <v>153.22611994030396</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Autumn'!W4*Scenarios!$B$6</f>
-        <v>128.52989637153522</v>
+        <v>141.76936326974655</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Autumn'!X4*Scenarios!$B$6</f>
-        <v>117.31907200179226</v>
+        <v>129.40374657280975</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Autumn'!Y4*Scenarios!$B$6</f>
-        <v>111.00572991365547</v>
+        <v>122.44008665238157</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -4182,99 +4185,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Flexibility, Winter'!B2*Scenarios!$B$6</f>
-        <v>53.239810348028691</v>
+        <v>58.723878465007878</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Flexibility, Winter'!C2*Scenarios!$B$6</f>
-        <v>50.007704150333652</v>
+        <v>55.158843009421034</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Flexibility, Winter'!D2*Scenarios!$B$6</f>
-        <v>47.640200867282346</v>
+        <v>52.547470539260452</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Flexibility, Winter'!E2*Scenarios!$B$6</f>
-        <v>46.421633001005944</v>
+        <v>51.203381767854282</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Flexibility, Winter'!F2*Scenarios!$B$6</f>
-        <v>46.189524836000906</v>
+        <v>50.947364859015011</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Flexibility, Winter'!G2*Scenarios!$B$6</f>
-        <v>47.05993045476977</v>
+        <v>51.907428267162274</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Flexibility, Winter'!H2*Scenarios!$B$6</f>
-        <v>49.851031138955257</v>
+        <v>54.986031595954515</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Flexibility, Winter'!I2*Scenarios!$B$6</f>
-        <v>59.216595596908206</v>
+        <v>65.316313867619115</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Flexibility, Winter'!J2*Scenarios!$B$6</f>
-        <v>66.057983760431455</v>
+        <v>72.86241225565665</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Flexibility, Winter'!K2*Scenarios!$B$6</f>
-        <v>63.829745376383173</v>
+        <v>70.404649930799636</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Flexibility, Winter'!L2*Scenarios!$B$6</f>
-        <v>56.651800373602626</v>
+        <v>62.487327024945166</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Flexibility, Winter'!M2*Scenarios!$B$6</f>
-        <v>50.007704150333652</v>
+        <v>55.158843009421034</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Flexibility, Winter'!N2*Scenarios!$B$6</f>
-        <v>48.678884905679858</v>
+        <v>53.6931462063162</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Flexibility, Winter'!O2*Scenarios!$B$6</f>
-        <v>47.686622500283356</v>
+        <v>52.598673921028315</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Flexibility, Winter'!P2*Scenarios!$B$6</f>
-        <v>48.162444238543664</v>
+        <v>53.123508584148816</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Flexibility, Winter'!Q2*Scenarios!$B$6</f>
-        <v>49.322985063568815</v>
+        <v>54.403593128345179</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Flexibility, Winter'!R2*Scenarios!$B$6</f>
-        <v>56.651800373602626</v>
+        <v>62.487327024945166</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Flexibility, Winter'!S2*Scenarios!$B$6</f>
-        <v>68.762043882740045</v>
+        <v>75.845009243634152</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Flexibility, Winter'!T2*Scenarios!$B$6</f>
-        <v>74.81426428524621</v>
+        <v>82.520650141618162</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Flexibility, Winter'!U2*Scenarios!$B$6</f>
-        <v>76.775578279538706</v>
+        <v>84.683993021310002</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Flexibility, Winter'!V2*Scenarios!$B$6</f>
-        <v>68.431289747607892</v>
+        <v>75.480185148538197</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Flexibility, Winter'!W2*Scenarios!$B$6</f>
-        <v>62.860693787487172</v>
+        <v>69.335779336395674</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Flexibility, Winter'!X2*Scenarios!$B$6</f>
-        <v>58.02704125125743</v>
+        <v>64.004227209817856</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Flexibility, Winter'!Y2*Scenarios!$B$6</f>
-        <v>54.116018670922678</v>
+        <v>59.690342295876135</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -4283,99 +4286,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Flexibility, Winter'!B3*Scenarios!$B$6</f>
-        <v>51.632461305368864</v>
+        <v>56.950961371295932</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Flexibility, Winter'!C3*Scenarios!$B$6</f>
-        <v>50.164377161712046</v>
+        <v>55.331654422887539</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Flexibility, Winter'!D3*Scenarios!$B$6</f>
-        <v>49.317182359443684</v>
+        <v>54.397192705624192</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Flexibility, Winter'!E3*Scenarios!$B$6</f>
-        <v>48.162444238543664</v>
+        <v>53.123508584148816</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Flexibility, Winter'!F3*Scenarios!$B$6</f>
-        <v>48.243682096295423</v>
+        <v>53.213114502242561</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Flexibility, Winter'!G3*Scenarios!$B$6</f>
-        <v>49.322985063568815</v>
+        <v>54.403593128345179</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Flexibility, Winter'!H3*Scenarios!$B$6</f>
-        <v>51.644066713619111</v>
+        <v>56.963762216737891</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Flexibility, Winter'!I3*Scenarios!$B$6</f>
-        <v>58.02704125125743</v>
+        <v>64.004227209817856</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Flexibility, Winter'!J3*Scenarios!$B$6</f>
-        <v>60.794931118942401</v>
+        <v>67.057228847726165</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Flexibility, Winter'!K3*Scenarios!$B$6</f>
-        <v>60.928393313820301</v>
+        <v>67.204438570308753</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Flexibility, Winter'!L3*Scenarios!$B$6</f>
-        <v>58.02704125125743</v>
+        <v>64.004227209817856</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Flexibility, Winter'!M3*Scenarios!$B$6</f>
-        <v>54.881975615439273</v>
+        <v>60.535198095045729</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Flexibility, Winter'!N3*Scenarios!$B$6</f>
-        <v>53.384877951156831</v>
+        <v>58.883889033032425</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Flexibility, Winter'!O3*Scenarios!$B$6</f>
-        <v>53.257218460404069</v>
+        <v>58.743079733170831</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Flexibility, Winter'!P3*Scenarios!$B$6</f>
-        <v>52.282364167382937</v>
+        <v>57.667808716045883</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Flexibility, Winter'!Q3*Scenarios!$B$6</f>
-        <v>53.390680655281962</v>
+        <v>58.890289455753411</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Flexibility, Winter'!R3*Scenarios!$B$6</f>
-        <v>58.595706255519751</v>
+        <v>64.631468636474068</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Flexibility, Winter'!S3*Scenarios!$B$6</f>
-        <v>62.146961180096703</v>
+        <v>68.548527341714916</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Flexibility, Winter'!T3*Scenarios!$B$6</f>
-        <v>73.114071976584356</v>
+        <v>80.645326284370498</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Flexibility, Winter'!U3*Scenarios!$B$6</f>
-        <v>69.324906182877243</v>
+        <v>76.465850247569392</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Flexibility, Winter'!V3*Scenarios!$B$6</f>
-        <v>63.829745376383173</v>
+        <v>70.404649930799636</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Flexibility, Winter'!W3*Scenarios!$B$6</f>
-        <v>59.338452383535845</v>
+        <v>65.450722744759744</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Flexibility, Winter'!X3*Scenarios!$B$6</f>
-        <v>56.866500426232278</v>
+        <v>62.7241426656215</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Flexibility, Winter'!Y3*Scenarios!$B$6</f>
-        <v>55.410021690825715</v>
+        <v>61.117636562655065</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -4384,99 +4387,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Flexibility, Winter'!B4*Scenarios!$B$6</f>
-        <v>53.576367187285982</v>
+        <v>59.095102982824827</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Flexibility, Winter'!C4*Scenarios!$B$6</f>
-        <v>52.293969575633199</v>
+        <v>57.680609561487856</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Flexibility, Winter'!D4*Scenarios!$B$6</f>
-        <v>50.48932859271909</v>
+        <v>55.690078095262521</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Flexibility, Winter'!E4*Scenarios!$B$6</f>
-        <v>49.787201393578869</v>
+        <v>54.915626946023714</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Flexibility, Winter'!F4*Scenarios!$B$6</f>
-        <v>49.322985063568815</v>
+        <v>54.403593128345179</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Flexibility, Winter'!G4*Scenarios!$B$6</f>
-        <v>50.077336599835157</v>
+        <v>55.235648082072807</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Flexibility, Winter'!H4*Scenarios!$B$6</f>
-        <v>55.125689188694558</v>
+        <v>60.804015849326959</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Flexibility, Winter'!I4*Scenarios!$B$6</f>
-        <v>60.313306676556969</v>
+        <v>66.525993761884678</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Flexibility, Winter'!J4*Scenarios!$B$6</f>
-        <v>70.444828079026522</v>
+        <v>77.701131832718872</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Flexibility, Winter'!K4*Scenarios!$B$6</f>
-        <v>70.444828079026522</v>
+        <v>77.701131832718872</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Flexibility, Winter'!L4*Scenarios!$B$6</f>
-        <v>61.148896070575077</v>
+        <v>67.447654633706051</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Flexibility, Winter'!M4*Scenarios!$B$6</f>
-        <v>59.750444376419772</v>
+        <v>65.905152757949438</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Flexibility, Winter'!N4*Scenarios!$B$6</f>
-        <v>58.021238547132299</v>
+        <v>63.997826787096869</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Flexibility, Winter'!O4*Scenarios!$B$6</f>
-        <v>57.156635632488566</v>
+        <v>63.044163801670585</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Flexibility, Winter'!P4*Scenarios!$B$6</f>
-        <v>54.986424289691541</v>
+        <v>60.650405704023399</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Flexibility, Winter'!Q4*Scenarios!$B$6</f>
-        <v>54.969016177316163</v>
+        <v>60.631204435860454</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Flexibility, Winter'!R4*Scenarios!$B$6</f>
-        <v>57.661470891374506</v>
+        <v>63.601000578396004</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Flexibility, Winter'!S4*Scenarios!$B$6</f>
-        <v>59.593771365041377</v>
+        <v>65.732341344482933</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Flexibility, Winter'!T4*Scenarios!$B$6</f>
-        <v>64.578294208524397</v>
+        <v>71.230304461806298</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Flexibility, Winter'!U4*Scenarios!$B$6</f>
-        <v>70.444828079026522</v>
+        <v>77.701131832718872</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Flexibility, Winter'!V4*Scenarios!$B$6</f>
-        <v>69.632449501508916</v>
+        <v>76.80507265178143</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Flexibility, Winter'!W4*Scenarios!$B$6</f>
-        <v>62.500926131729372</v>
+        <v>68.938953127694802</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Flexibility, Winter'!X4*Scenarios!$B$6</f>
-        <v>58.792998195774018</v>
+        <v>64.849083008987449</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Flexibility, Winter'!Y4*Scenarios!$B$6</f>
-        <v>53.779461831665387</v>
+        <v>59.319117778059194</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -4630,99 +4633,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Flexibility, Spring'!B2*Scenarios!$B$6</f>
-        <v>25.531898150553268</v>
+        <v>28.161859972319856</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Flexibility, Spring'!C2*Scenarios!$B$6</f>
-        <v>27.052206631336212</v>
+        <v>29.838770725217081</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Flexibility, Spring'!D2*Scenarios!$B$6</f>
-        <v>27.945823066605573</v>
+        <v>30.824435824248276</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Flexibility, Spring'!E2*Scenarios!$B$6</f>
-        <v>28.085087965608594</v>
+        <v>30.97804596955184</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Flexibility, Spring'!F2*Scenarios!$B$6</f>
-        <v>29.303655831884999</v>
+        <v>32.322134740958013</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Flexibility, Spring'!G2*Scenarios!$B$6</f>
-        <v>32.489340396579031</v>
+        <v>35.835966814777017</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Flexibility, Spring'!H2*Scenarios!$B$6</f>
-        <v>34.131505663989621</v>
+        <v>37.64728644481486</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Flexibility, Spring'!I2*Scenarios!$B$6</f>
-        <v>29.00191521737846</v>
+        <v>31.989312759466962</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Flexibility, Spring'!J2*Scenarios!$B$6</f>
-        <v>19.61313994292501</v>
+        <v>21.633428796918434</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Flexibility, Spring'!K2*Scenarios!$B$6</f>
-        <v>7.8336505689197526</v>
+        <v>8.64057067332541</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Flexibility, Spring'!L2*Scenarios!$B$6</f>
-        <v>6.5570556613920896</v>
+        <v>7.2324776747094184</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Flexibility, Spring'!M2*Scenarios!$B$6</f>
-        <v>5.4835553982438263</v>
+        <v>6.0483994713277864</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Flexibility, Spring'!N2*Scenarios!$B$6</f>
-        <v>2.6112168563065841</v>
+        <v>2.8801902244418036</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Flexibility, Spring'!O2*Scenarios!$B$6</f>
-        <v>1.8162463911643574</v>
+        <v>2.003332311667299</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Flexibility, Spring'!P2*Scenarios!$B$6</f>
-        <v>0.31334602275679013</v>
+        <v>0.34562282693301644</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Flexibility, Spring'!Q2*Scenarios!$B$6</f>
-        <v>1.8858788406658664</v>
+        <v>2.0801373843190802</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Flexibility, Spring'!R2*Scenarios!$B$6</f>
-        <v>2.9013520625628715</v>
+        <v>3.2002113604908926</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Flexibility, Spring'!S2*Scenarios!$B$6</f>
-        <v>8.8027021578157516</v>
+        <v>9.7094412677293693</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Flexibility, Spring'!T2*Scenarios!$B$6</f>
-        <v>19.61313994292501</v>
+        <v>21.633428796918434</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Flexibility, Spring'!U2*Scenarios!$B$6</f>
-        <v>28.502882662617647</v>
+        <v>31.43887640546253</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Flexibility, Spring'!V2*Scenarios!$B$6</f>
-        <v>34.415838166120778</v>
+        <v>37.960907158142973</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Flexibility, Spring'!W2*Scenarios!$B$6</f>
-        <v>33.440983873099654</v>
+        <v>36.885636141018033</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Flexibility, Spring'!X2*Scenarios!$B$6</f>
-        <v>28.433250213116139</v>
+        <v>31.36207133281075</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Flexibility, Spring'!Y2*Scenarios!$B$6</f>
-        <v>42.02898597828576</v>
+        <v>46.358261768071074</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -4731,99 +4734,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Flexibility, Spring'!B3*Scenarios!$B$6</f>
-        <v>40.909064082136489</v>
+        <v>45.122980182921587</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Flexibility, Spring'!C3*Scenarios!$B$6</f>
-        <v>40.114093616994253</v>
+        <v>44.246122270147083</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Flexibility, Spring'!D3*Scenarios!$B$6</f>
-        <v>40.038658463367625</v>
+        <v>44.162916774774317</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Flexibility, Spring'!E3*Scenarios!$B$6</f>
-        <v>39.46419075498018</v>
+        <v>43.529274925397125</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Flexibility, Spring'!F3*Scenarios!$B$6</f>
-        <v>39.945815197365611</v>
+        <v>44.060510011238613</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Flexibility, Spring'!G3*Scenarios!$B$6</f>
-        <v>38.878117638342474</v>
+        <v>42.882832230577961</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Flexibility, Spring'!H3*Scenarios!$B$6</f>
-        <v>39.411966417854046</v>
+        <v>43.47167112090829</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Flexibility, Spring'!I3*Scenarios!$B$6</f>
-        <v>42.284304959791292</v>
+        <v>46.639880367794277</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Flexibility, Spring'!J3*Scenarios!$B$6</f>
-        <v>24.197276201774351</v>
+        <v>26.689762746494047</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Flexibility, Spring'!K3*Scenarios!$B$6</f>
-        <v>17.408112375377229</v>
+        <v>19.201268162945357</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Flexibility, Spring'!L3*Scenarios!$B$6</f>
-        <v>10.920689163486648</v>
+        <v>12.045595560887721</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Flexibility, Spring'!M3*Scenarios!$B$6</f>
-        <v>11.854924527631892</v>
+        <v>13.076063618965787</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Flexibility, Spring'!N3*Scenarios!$B$6</f>
-        <v>8.5299750639348417</v>
+        <v>9.4086213998432235</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Flexibility, Spring'!O3*Scenarios!$B$6</f>
-        <v>5.6054121848714678</v>
+        <v>6.1828083484684049</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Flexibility, Spring'!P3*Scenarios!$B$6</f>
-        <v>4.7640200867282356</v>
+        <v>5.2547470539260468</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Flexibility, Spring'!Q3*Scenarios!$B$6</f>
-        <v>4.317211869093553</v>
+        <v>4.7619145044104485</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Flexibility, Spring'!R3*Scenarios!$B$6</f>
-        <v>8.5299750639348417</v>
+        <v>9.4086213998432235</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Flexibility, Spring'!S3*Scenarios!$B$6</f>
-        <v>11.280456819244444</v>
+        <v>12.442421769588591</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Flexibility, Spring'!T3*Scenarios!$B$6</f>
-        <v>20.187607651312458</v>
+        <v>22.267070646295632</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Flexibility, Spring'!U3*Scenarios!$B$6</f>
-        <v>36.400362976913783</v>
+        <v>40.149851728718737</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Flexibility, Spring'!V3*Scenarios!$B$6</f>
-        <v>39.46419075498018</v>
+        <v>43.529274925397125</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Flexibility, Spring'!W3*Scenarios!$B$6</f>
-        <v>38.74465544346458</v>
+        <v>42.73562250799538</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Flexibility, Spring'!X3*Scenarios!$B$6</f>
-        <v>36.603457621293181</v>
+        <v>40.373866523953104</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Flexibility, Spring'!Y3*Scenarios!$B$6</f>
-        <v>41.779469700905345</v>
+        <v>46.083043591068858</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -4832,99 +4835,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Flexibility, Spring'!B4*Scenarios!$B$6</f>
-        <v>39.980631422116367</v>
+        <v>44.098912547564503</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Flexibility, Spring'!C4*Scenarios!$B$6</f>
-        <v>38.239820184578647</v>
+        <v>42.178785731269969</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Flexibility, Spring'!D4*Scenarios!$B$6</f>
-        <v>38.483533757833925</v>
+        <v>42.447603485551198</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Flexibility, Spring'!E4*Scenarios!$B$6</f>
-        <v>37.578311914314313</v>
+        <v>41.449137541078045</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Flexibility, Spring'!F4*Scenarios!$B$6</f>
-        <v>39.388755601353537</v>
+        <v>43.446069430024359</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Flexibility, Spring'!G4*Scenarios!$B$6</f>
-        <v>36.49900894704092</v>
+        <v>40.258658914975427</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Flexibility, Spring'!H4*Scenarios!$B$6</f>
-        <v>38.547363503210313</v>
+        <v>42.518008135482006</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Flexibility, Spring'!I4*Scenarios!$B$6</f>
-        <v>33.992240764986597</v>
+        <v>37.4936762995113</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Flexibility, Spring'!J4*Scenarios!$B$6</f>
-        <v>22.427451443610995</v>
+        <v>24.737633816594599</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Flexibility, Spring'!K4*Scenarios!$B$6</f>
-        <v>14.025135870428921</v>
+        <v>15.469821716612977</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Flexibility, Spring'!L4*Scenarios!$B$6</f>
-        <v>12.765949075276634</v>
+        <v>14.080929986159928</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Flexibility, Spring'!M4*Scenarios!$B$6</f>
-        <v>12.626684176273617</v>
+        <v>13.927319840856367</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Flexibility, Spring'!N4*Scenarios!$B$6</f>
-        <v>6.8007692346473707</v>
+        <v>7.5012954289906526</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Flexibility, Spring'!O4*Scenarios!$B$6</f>
-        <v>5.9361663200036352</v>
+        <v>6.5476324435643667</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Flexibility, Spring'!P4*Scenarios!$B$6</f>
-        <v>1.8858788406658664</v>
+        <v>2.0801373843190802</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Flexibility, Spring'!Q4*Scenarios!$B$6</f>
-        <v>1.8858788406658664</v>
+        <v>2.0801373843190802</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Flexibility, Spring'!R4*Scenarios!$B$6</f>
-        <v>4.9148903939815041</v>
+        <v>5.4211580446715724</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Flexibility, Spring'!S4*Scenarios!$B$6</f>
-        <v>14.564787354065615</v>
+        <v>16.065061029664282</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Flexibility, Spring'!T4*Scenarios!$B$6</f>
-        <v>23.907140995518063</v>
+        <v>26.369741610444958</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Flexibility, Spring'!U4*Scenarios!$B$6</f>
-        <v>33.214678412219754</v>
+        <v>36.636019654899741</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Flexibility, Spring'!V4*Scenarios!$B$6</f>
-        <v>43.305580885813413</v>
+        <v>47.766354766687058</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Flexibility, Spring'!W4*Scenarios!$B$6</f>
-        <v>39.388755601353537</v>
+        <v>43.446069430024359</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Flexibility, Spring'!X4*Scenarios!$B$6</f>
-        <v>41.199199288392776</v>
+        <v>45.44300131897068</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Flexibility, Spring'!Y4*Scenarios!$B$6</f>
-        <v>41.779469700905345</v>
+        <v>46.083043591068858</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -5078,99 +5081,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Flexibility, Summer'!B2*Scenarios!$B$6</f>
-        <v>65.651794471672659</v>
+        <v>72.414382665187915</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Flexibility, Summer'!C2*Scenarios!$B$6</f>
-        <v>65.210788958163093</v>
+        <v>71.927950538393304</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Flexibility, Summer'!D2*Scenarios!$B$6</f>
-        <v>65.361659265416364</v>
+        <v>72.094361529138837</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Flexibility, Summer'!E2*Scenarios!$B$6</f>
-        <v>65.326843040665608</v>
+        <v>72.055958992812933</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Flexibility, Summer'!F2*Scenarios!$B$6</f>
-        <v>65.500924164419388</v>
+        <v>72.247971674442397</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Flexibility, Summer'!G2*Scenarios!$B$6</f>
-        <v>67.798794997969182</v>
+        <v>74.782539071951177</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Flexibility, Summer'!H2*Scenarios!$B$6</f>
-        <v>70.050244198517959</v>
+        <v>77.265903087692109</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Flexibility, Summer'!I2*Scenarios!$B$6</f>
-        <v>67.798794997969182</v>
+        <v>74.782539071951177</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Flexibility, Summer'!J2*Scenarios!$B$6</f>
-        <v>65.466107939668632</v>
+        <v>72.209569138116493</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Flexibility, Summer'!K2*Scenarios!$B$6</f>
-        <v>64.943864568407321</v>
+        <v>71.633531093228143</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Flexibility, Summer'!L2*Scenarios!$B$6</f>
-        <v>56.866500426232278</v>
+        <v>62.7241426656215</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Flexibility, Summer'!M2*Scenarios!$B$6</f>
-        <v>53.953542955419159</v>
+        <v>59.511130459688644</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Flexibility, Summer'!N2*Scenarios!$B$6</f>
-        <v>53.843291577041768</v>
+        <v>59.389522427989988</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Flexibility, Summer'!O2*Scenarios!$B$6</f>
-        <v>51.63826400949398</v>
+        <v>56.957361794016904</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Flexibility, Summer'!P2*Scenarios!$B$6</f>
-        <v>48.162444238543664</v>
+        <v>53.123508584148816</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Flexibility, Summer'!Q2*Scenarios!$B$6</f>
-        <v>47.466119743528573</v>
+        <v>52.355457857631002</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Flexibility, Summer'!R2*Scenarios!$B$6</f>
-        <v>47.466119743528573</v>
+        <v>52.355457857631002</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Flexibility, Summer'!S2*Scenarios!$B$6</f>
-        <v>54.760118828811635</v>
+        <v>60.400789217905114</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Flexibility, Summer'!T2*Scenarios!$B$6</f>
-        <v>63.365529046373112</v>
+        <v>69.892616113121093</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Flexibility, Summer'!U2*Scenarios!$B$6</f>
-        <v>68.239800511478734</v>
+        <v>75.268971198745788</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Flexibility, Summer'!V2*Scenarios!$B$6</f>
-        <v>76.978672923918097</v>
+        <v>84.908007816544369</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Flexibility, Summer'!W2*Scenarios!$B$6</f>
-        <v>72.823936770328075</v>
+        <v>80.325305148321405</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Flexibility, Summer'!X2*Scenarios!$B$6</f>
-        <v>67.972876121722948</v>
+        <v>74.974551753580641</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Flexibility, Summer'!Y2*Scenarios!$B$6</f>
-        <v>66.057983760431455</v>
+        <v>72.86241225565665</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -5179,99 +5182,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Flexibility, Summer'!B3*Scenarios!$B$6</f>
-        <v>62.216593629598215</v>
+        <v>68.625332414366696</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Flexibility, Summer'!C3*Scenarios!$B$6</f>
-        <v>62.210790925473084</v>
+        <v>68.618931991645724</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Flexibility, Summer'!D3*Scenarios!$B$6</f>
-        <v>62.210790925473084</v>
+        <v>68.618931991645724</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Flexibility, Summer'!E3*Scenarios!$B$6</f>
-        <v>55.125689188694558</v>
+        <v>60.804015849326959</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Flexibility, Summer'!F3*Scenarios!$B$6</f>
-        <v>59.442901057788106</v>
+        <v>65.565930353737414</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Flexibility, Summer'!G3*Scenarios!$B$6</f>
-        <v>60.928393313820301</v>
+        <v>67.204438570308753</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Flexibility, Summer'!H3*Scenarios!$B$6</f>
-        <v>66.789124480197302</v>
+        <v>73.66886551850034</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Flexibility, Summer'!I3*Scenarios!$B$6</f>
-        <v>59.442901057788106</v>
+        <v>65.565930353737414</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Flexibility, Summer'!J3*Scenarios!$B$6</f>
-        <v>51.046388188731157</v>
+        <v>56.304518676476768</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Flexibility, Summer'!K3*Scenarios!$B$6</f>
-        <v>46.067668049373275</v>
+        <v>50.812955981874396</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Flexibility, Summer'!L3*Scenarios!$B$6</f>
-        <v>46.189524836000906</v>
+        <v>50.947364859015011</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Flexibility, Summer'!M3*Scenarios!$B$6</f>
-        <v>47.05993045476977</v>
+        <v>51.907428267162274</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Flexibility, Summer'!N3*Scenarios!$B$6</f>
-        <v>47.582173826031088</v>
+        <v>52.483466312050638</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Flexibility, Summer'!O3*Scenarios!$B$6</f>
-        <v>47.866506328162252</v>
+        <v>52.797087025378744</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Flexibility, Summer'!P3*Scenarios!$B$6</f>
-        <v>46.189524836000906</v>
+        <v>50.947364859015011</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Flexibility, Summer'!Q3*Scenarios!$B$6</f>
-        <v>46.189524836000906</v>
+        <v>50.947364859015011</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Flexibility, Summer'!R3*Scenarios!$B$6</f>
-        <v>47.582173826031088</v>
+        <v>52.483466312050638</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Flexibility, Summer'!S3*Scenarios!$B$6</f>
-        <v>48.876176845934133</v>
+        <v>53.910760578829581</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Flexibility, Summer'!T3*Scenarios!$B$6</f>
-        <v>51.644066713619111</v>
+        <v>56.963762216737891</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Flexibility, Summer'!U3*Scenarios!$B$6</f>
-        <v>67.427421933961128</v>
+        <v>74.372912017808346</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Flexibility, Summer'!V3*Scenarios!$B$6</f>
-        <v>74.796856172870832</v>
+        <v>82.501448873455217</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Flexibility, Summer'!W3*Scenarios!$B$6</f>
-        <v>71.036703899789345</v>
+        <v>78.353974950259015</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Flexibility, Summer'!X3*Scenarios!$B$6</f>
-        <v>67.067654278203335</v>
+        <v>73.976085809107474</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Flexibility, Summer'!Y3*Scenarios!$B$6</f>
-        <v>62.524136948229881</v>
+        <v>68.964554818578733</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -5280,99 +5283,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Flexibility, Summer'!B4*Scenarios!$B$6</f>
-        <v>63.040577615366068</v>
+        <v>69.534192440746111</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Flexibility, Summer'!C4*Scenarios!$B$6</f>
-        <v>60.713693261190642</v>
+        <v>66.967622929632412</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Flexibility, Summer'!D4*Scenarios!$B$6</f>
-        <v>61.073460916948441</v>
+        <v>67.364449138333285</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Flexibility, Summer'!E4*Scenarios!$B$6</f>
-        <v>54.33071872355233</v>
+        <v>59.927157936552454</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Flexibility, Summer'!F4*Scenarios!$B$6</f>
-        <v>54.760118828811635</v>
+        <v>60.400789217905114</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Flexibility, Summer'!G4*Scenarios!$B$6</f>
-        <v>57.707892524375517</v>
+        <v>63.65220396016386</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Flexibility, Summer'!H4*Scenarios!$B$6</f>
-        <v>65.744637737674665</v>
+        <v>72.516789428723627</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Flexibility, Summer'!I4*Scenarios!$B$6</f>
-        <v>63.754310222756537</v>
+        <v>70.321444435426884</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Flexibility, Summer'!J4*Scenarios!$B$6</f>
-        <v>52.224337126131687</v>
+        <v>57.603804488836069</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Flexibility, Summer'!K4*Scenarios!$B$6</f>
-        <v>43.520280938443072</v>
+        <v>48.003170407363392</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Flexibility, Summer'!L4*Scenarios!$B$6</f>
-        <v>37.647944363815817</v>
+        <v>41.525942613729818</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Flexibility, Summer'!M4*Scenarios!$B$6</f>
-        <v>37.456455127686667</v>
+        <v>41.314728663937423</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Flexibility, Summer'!N4*Scenarios!$B$6</f>
-        <v>37.711774109192199</v>
+        <v>41.596347263660618</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Flexibility, Summer'!O4*Scenarios!$B$6</f>
-        <v>37.647944363815817</v>
+        <v>41.525942613729818</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Flexibility, Summer'!P4*Scenarios!$B$6</f>
-        <v>36.77173604092183</v>
+        <v>40.559478782861575</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Flexibility, Summer'!Q4*Scenarios!$B$6</f>
-        <v>34.816224750754458</v>
+        <v>38.402536325890715</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Flexibility, Summer'!R4*Scenarios!$B$6</f>
-        <v>37.08508206367862</v>
+        <v>40.905101609794592</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Flexibility, Summer'!S4*Scenarios!$B$6</f>
-        <v>40.61312617175507</v>
+        <v>44.796558624151515</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Flexibility, Summer'!T4*Scenarios!$B$6</f>
-        <v>49.630528382200481</v>
+        <v>54.742815532557209</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Flexibility, Summer'!U4*Scenarios!$B$6</f>
-        <v>63.261080372120844</v>
+        <v>69.777408504143423</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Flexibility, Summer'!V4*Scenarios!$B$6</f>
-        <v>66.301697333686747</v>
+        <v>73.13123000993788</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Flexibility, Summer'!W4*Scenarios!$B$6</f>
-        <v>62.982550574114818</v>
+        <v>69.470188213536304</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Flexibility, Summer'!X4*Scenarios!$B$6</f>
-        <v>54.64986745043425</v>
+        <v>60.279181186206458</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Flexibility, Summer'!Y4*Scenarios!$B$6</f>
-        <v>43.07347272080839</v>
+        <v>47.510337857847794</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -5526,99 +5529,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Flexibility, Autumn'!B2*Scenarios!$B$6</f>
-        <v>53.40808876765734</v>
+        <v>58.909490723916356</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Flexibility, Autumn'!C2*Scenarios!$B$6</f>
-        <v>52.201126309631178</v>
+        <v>57.578202797952137</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Flexibility, Autumn'!D2*Scenarios!$B$6</f>
-        <v>52.264956055007559</v>
+        <v>57.648607447882938</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Flexibility, Autumn'!E2*Scenarios!$B$6</f>
-        <v>48.638265976803972</v>
+        <v>53.648343247269324</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Flexibility, Autumn'!F2*Scenarios!$B$6</f>
-        <v>49.531882412073337</v>
+        <v>54.634008346300519</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Flexibility, Autumn'!G2*Scenarios!$B$6</f>
-        <v>52.160507380755298</v>
+        <v>57.533399838905268</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Flexibility, Autumn'!H2*Scenarios!$B$6</f>
-        <v>60.429360759059485</v>
+        <v>66.65400221630432</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Flexibility, Autumn'!I2*Scenarios!$B$6</f>
-        <v>70.299760475898381</v>
+        <v>77.54112126469434</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Flexibility, Autumn'!J2*Scenarios!$B$6</f>
-        <v>70.067652310893337</v>
+        <v>77.285104355855054</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Flexibility, Autumn'!K2*Scenarios!$B$6</f>
-        <v>68.495119492984273</v>
+        <v>75.550589798469005</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Flexibility, Autumn'!L2*Scenarios!$B$6</f>
-        <v>57.957408801755918</v>
+        <v>63.927422137166069</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Flexibility, Autumn'!M2*Scenarios!$B$6</f>
-        <v>54.150834895673427</v>
+        <v>59.728744832202018</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Flexibility, Autumn'!N2*Scenarios!$B$6</f>
-        <v>53.030912999524162</v>
+        <v>58.493463247052539</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Flexibility, Autumn'!O2*Scenarios!$B$6</f>
-        <v>52.282364167382937</v>
+        <v>57.667808716045883</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Flexibility, Autumn'!P2*Scenarios!$B$6</f>
-        <v>53.616986116161868</v>
+        <v>59.139905941871703</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Flexibility, Autumn'!Q2*Scenarios!$B$6</f>
-        <v>63.620848027878644</v>
+        <v>70.174234712844296</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Flexibility, Autumn'!R2*Scenarios!$B$6</f>
-        <v>70.177903689270735</v>
+        <v>77.406712387553711</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Flexibility, Autumn'!S2*Scenarios!$B$6</f>
-        <v>78.475770588200547</v>
+        <v>86.559316878557667</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Flexibility, Autumn'!T2*Scenarios!$B$6</f>
-        <v>93.156612024768663</v>
+        <v>102.75238636264157</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Flexibility, Autumn'!U2*Scenarios!$B$6</f>
-        <v>87.922572903905262</v>
+        <v>96.97920506831602</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Flexibility, Autumn'!V2*Scenarios!$B$6</f>
-        <v>71.373260739046643</v>
+        <v>78.725199468075957</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Flexibility, Autumn'!W2*Scenarios!$B$6</f>
-        <v>68.634384391987282</v>
+        <v>75.704199943772565</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Flexibility, Autumn'!X2*Scenarios!$B$6</f>
-        <v>68.634384391987282</v>
+        <v>75.704199943772565</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Flexibility, Autumn'!Y2*Scenarios!$B$6</f>
-        <v>63.620848027878644</v>
+        <v>70.174234712844296</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -5627,99 +5630,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Flexibility, Autumn'!B3*Scenarios!$B$6</f>
-        <v>46.421633001005944</v>
+        <v>51.203381767854282</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Flexibility, Autumn'!C3*Scenarios!$B$6</f>
-        <v>44.558964976840585</v>
+        <v>49.148846074419133</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Flexibility, Autumn'!D3*Scenarios!$B$6</f>
-        <v>43.520280938443072</v>
+        <v>48.003170407363392</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Flexibility, Autumn'!E3*Scenarios!$B$6</f>
-        <v>42.121829244287767</v>
+        <v>46.460668531606785</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Flexibility, Autumn'!F3*Scenarios!$B$6</f>
-        <v>41.193396584267646</v>
+        <v>45.436600896249693</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Flexibility, Autumn'!G3*Scenarios!$B$6</f>
-        <v>44.680821763468217</v>
+        <v>49.283254951559748</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Flexibility, Autumn'!H3*Scenarios!$B$6</f>
-        <v>51.290101761986442</v>
+        <v>56.573336430758005</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Flexibility, Autumn'!I3*Scenarios!$B$6</f>
-        <v>62.297831487349974</v>
+        <v>68.714938332460449</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Flexibility, Autumn'!J3*Scenarios!$B$6</f>
-        <v>70.549276753278775</v>
+        <v>77.816339441696542</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Flexibility, Autumn'!K3*Scenarios!$B$6</f>
-        <v>59.651798406292635</v>
+        <v>65.796345571692754</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Flexibility, Autumn'!L3*Scenarios!$B$6</f>
-        <v>54.081202446171922</v>
+        <v>59.651939759550245</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Flexibility, Autumn'!M3*Scenarios!$B$6</f>
-        <v>49.346195880069317</v>
+        <v>54.42919481922911</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Flexibility, Autumn'!N3*Scenarios!$B$6</f>
-        <v>51.591842376492977</v>
+        <v>56.906158412249049</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Flexibility, Autumn'!O3*Scenarios!$B$6</f>
-        <v>49.502868891447712</v>
+        <v>54.602006232695615</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Flexibility, Autumn'!P3*Scenarios!$B$6</f>
-        <v>49.618922973950227</v>
+        <v>54.730014687115251</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Flexibility, Autumn'!Q3*Scenarios!$B$6</f>
-        <v>55.415824394950846</v>
+        <v>61.124036985376051</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Flexibility, Autumn'!R3*Scenarios!$B$6</f>
-        <v>65.5705566139209</v>
+        <v>72.324776747094177</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Flexibility, Autumn'!S3*Scenarios!$B$6</f>
-        <v>75.435153626634659</v>
+        <v>83.20549537276321</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Flexibility, Autumn'!T3*Scenarios!$B$6</f>
-        <v>77.837473134436706</v>
+        <v>85.85527037924966</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Flexibility, Autumn'!U3*Scenarios!$B$6</f>
-        <v>78.342308393322654</v>
+        <v>86.412107155975079</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Flexibility, Autumn'!V3*Scenarios!$B$6</f>
-        <v>86.29781574887005</v>
+        <v>95.187086706441107</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Flexibility, Autumn'!W3*Scenarios!$B$6</f>
-        <v>77.953527216939236</v>
+        <v>85.983278833669303</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Flexibility, Autumn'!X3*Scenarios!$B$6</f>
-        <v>66.847151521448552</v>
+        <v>73.732869745710175</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Flexibility, Autumn'!Y3*Scenarios!$B$6</f>
-        <v>59.187582076282574</v>
+        <v>65.284311754014212</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -5728,99 +5731,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Flexibility, Autumn'!B4*Scenarios!$B$6</f>
-        <v>50.181785274087424</v>
+        <v>55.350855691050484</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Flexibility, Autumn'!C4*Scenarios!$B$6</f>
-        <v>47.413895406402439</v>
+        <v>52.297854053142167</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Flexibility, Autumn'!D4*Scenarios!$B$6</f>
-        <v>43.520280938443072</v>
+        <v>48.003170407363392</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Flexibility, Autumn'!E4*Scenarios!$B$6</f>
-        <v>41.025118164639004</v>
+        <v>45.250988637341223</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Flexibility, Autumn'!F4*Scenarios!$B$6</f>
-        <v>41.013512756388756</v>
+        <v>45.238187791899264</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Flexibility, Autumn'!G4*Scenarios!$B$6</f>
-        <v>41.582177760651071</v>
+        <v>45.86542921855547</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Flexibility, Autumn'!H4*Scenarios!$B$6</f>
-        <v>42.847167259928483</v>
+        <v>47.260721371729502</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Flexibility, Autumn'!I4*Scenarios!$B$6</f>
-        <v>45.261092175980792</v>
+        <v>49.923297223657926</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Flexibility, Autumn'!J4*Scenarios!$B$6</f>
-        <v>42.411964450544055</v>
+        <v>46.780689667655871</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Flexibility, Autumn'!K4*Scenarios!$B$6</f>
-        <v>40.618928875880201</v>
+        <v>44.802959046872495</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Flexibility, Autumn'!L4*Scenarios!$B$6</f>
-        <v>38.709839218713824</v>
+        <v>42.697219971669483</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Flexibility, Autumn'!M4*Scenarios!$B$6</f>
-        <v>27.736925718101048</v>
+        <v>30.594020606292933</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Flexibility, Autumn'!N4*Scenarios!$B$6</f>
-        <v>29.007717921503588</v>
+        <v>31.995713182187945</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Flexibility, Autumn'!O4*Scenarios!$B$6</f>
-        <v>29.152785524631732</v>
+        <v>32.155723750212495</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Flexibility, Autumn'!P4*Scenarios!$B$6</f>
-        <v>34.816224750754458</v>
+        <v>38.402536325890715</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Flexibility, Autumn'!Q4*Scenarios!$B$6</f>
-        <v>40.868445153260609</v>
+        <v>45.078177223874718</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Flexibility, Autumn'!R4*Scenarios!$B$6</f>
-        <v>48.603449752053223</v>
+        <v>53.609940710943441</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Flexibility, Autumn'!S4*Scenarios!$B$6</f>
-        <v>61.206923111826335</v>
+        <v>67.511658860915873</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Flexibility, Autumn'!T4*Scenarios!$B$6</f>
-        <v>73.044439527082844</v>
+        <v>80.568521211718718</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Flexibility, Autumn'!U4*Scenarios!$B$6</f>
-        <v>69.638252205634046</v>
+        <v>76.811473074502416</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Flexibility, Autumn'!V4*Scenarios!$B$6</f>
-        <v>69.458368377755136</v>
+        <v>76.61305997015198</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Flexibility, Autumn'!W4*Scenarios!$B$6</f>
-        <v>64.264948185767608</v>
+        <v>70.884681634873274</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Flexibility, Autumn'!X4*Scenarios!$B$6</f>
-        <v>58.659536000896132</v>
+        <v>64.701873286404876</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Flexibility, Autumn'!Y4*Scenarios!$B$6</f>
-        <v>55.502864956827736</v>
+        <v>61.220043326190783</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">

--- a/data/CS7/Market Data/CS7_market_data_2035.xlsx
+++ b/data/CS7/Market Data/CS7_market_data_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS7\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5B853F-B9AC-4D5A-A807-48D5E1AB65A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932C9C81-3EB5-4EB4-A748-523D649B946F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-12555" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS7/Market Data/CS7_market_data_2035.xlsx
+++ b/data/CS7/Market Data/CS7_market_data_2035.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS7\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932C9C81-3EB5-4EB4-A748-523D649B946F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1286D250-3097-43A8-A6FF-544F8E87BD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/CS7/Market Data/CS7_market_data_2035.xlsx
+++ b/data/CS7/Market Data/CS7_market_data_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS7\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1286D250-3097-43A8-A6FF-544F8E87BD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BBB42D-16D7-4077-BF90-A243CBB8FC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-12555" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>

--- a/data/CS7/Market Data/CS7_market_data_2035.xlsx
+++ b/data/CS7/Market Data/CS7_market_data_2035.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS7\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BBB42D-16D7-4077-BF90-A243CBB8FC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD44411-6237-4D14-9480-737BB7C61C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67080" yWindow="-12555" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/CS7/Market Data/CS7_market_data_2035.xlsx
+++ b/data/CS7/Market Data/CS7_market_data_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS7\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD44411-6237-4D14-9480-737BB7C61C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71DEE47-B50D-4E08-9E3B-91224315F4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-12555" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31065" yWindow="-12015" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2229,7 +2229,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2245,16 +2245,13 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
-        <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>0.6</v>
       </c>
       <c r="D1" s="1">
-        <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>0.2</v>
       </c>
       <c r="E1" s="1">
-        <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>0.2</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS7/Market Data/CS7_market_data_2035.xlsx
+++ b/data/CS7/Market Data/CS7_market_data_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS7\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71DEE47-B50D-4E08-9E3B-91224315F4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12C6C6F-9023-4A50-A410-603381D85DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31065" yWindow="-12015" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-12555" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2245,13 +2245,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>0.6</v>
+        <f>1/$B$1</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
-        <v>0.2</v>
+        <f t="shared" ref="D1:E1" si="0">1/$B$1</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
-        <v>0.2</v>
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS7/Market Data/CS7_market_data_2035.xlsx
+++ b/data/CS7/Market Data/CS7_market_data_2035.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS7\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12C6C6F-9023-4A50-A410-603381D85DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEA2E8E-3456-4F8D-812E-1FEF41FEBAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67080" yWindow="-12555" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/CS7/Market Data/CS7_market_data_2035.xlsx
+++ b/data/CS7/Market Data/CS7_market_data_2035.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS7\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEA2E8E-3456-4F8D-812E-1FEF41FEBAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D10273-818B-404F-9104-96DD229A8292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-12555" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="73875" yWindow="4830" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
